--- a/cw7/cw7a.xlsx
+++ b/cw7/cw7a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariusz\Desktop\Martynka\studia\bd\cw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariusz\Documents\GitHub\BazyDanych\cw7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74F72C6A-3BF0-4FF3-83A6-5D13185A8823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFD4FC4-7776-4C3E-8DFB-6565A262687E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{55E9CB81-7A2B-4A33-B525-F683A4D1A87B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{55E9CB81-7A2B-4A33-B525-F683A4D1A87B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="125">
   <si>
     <t>IDPracownika</t>
   </si>
@@ -249,9 +249,6 @@
     <t>####################</t>
   </si>
   <si>
-    <t>###################</t>
-  </si>
-  <si>
     <t>GodzinaWizyty</t>
   </si>
   <si>
@@ -306,9 +303,6 @@
     <t>########################</t>
   </si>
   <si>
-    <t>########</t>
-  </si>
-  <si>
     <t>IDProduktu</t>
   </si>
   <si>
@@ -412,6 +406,12 @@
   </si>
   <si>
     <t>Nowy Targ</t>
+  </si>
+  <si>
+    <t>3NF</t>
+  </si>
+  <si>
+    <t>2NF</t>
   </si>
 </sst>
 </file>
@@ -745,69 +745,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="97">
-    <dxf>
-      <font>
-        <strike val="0"/>
+  <dxfs count="102">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u/>
@@ -818,10 +830,34 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -845,11 +881,12 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -860,6 +897,8 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -886,8 +925,10 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
         <right/>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -895,33 +936,47 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -962,121 +1017,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -1102,254 +1042,6 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="10" formatCode="#,##0\ &quot;zł&quot;;[Red]\-#,##0\ &quot;zł&quot;"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1467,6 +1159,52 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1490,66 +1228,64 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-      </border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1614,7 +1350,9 @@
       </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
@@ -1626,33 +1364,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1676,31 +1387,20 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1740,6 +1440,221 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="10" formatCode="#,##0\ &quot;zł&quot;;[Red]\-#,##0\ &quot;zł&quot;"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1777,80 +1692,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1925,133 +1766,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2089,6 +1803,86 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2163,6 +1957,83 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2200,36 +2071,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2267,6 +2108,23 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2290,24 +2148,17 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -2317,7 +2168,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="238"/>
@@ -2325,24 +2176,10 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2382,83 +2219,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2496,6 +2256,83 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2533,58 +2370,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2608,6 +2393,59 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2647,6 +2485,33 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2684,80 +2549,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2795,6 +2586,83 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2832,6 +2700,43 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -2840,9 +2745,150 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -2857,6 +2903,63 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2888,6 +2991,19 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C7425E0-8985-4ADB-BFD0-D5315ECDE8E6}" name="Tabela3" displayName="Tabela3" ref="E42:H49" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+  <autoFilter ref="E42:H49" xr:uid="{8C7425E0-8985-4ADB-BFD0-D5315ECDE8E6}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E44EB36D-A805-4DD3-9693-E572B15AD590}" name="IDWizyty" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{F92C8B88-75EA-4DEA-A662-DB4D51EC0E84}" name="IDPacjenta" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{2BA11047-D963-4844-8756-F2A0F4D06753}" name="IDZabiegu" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{D8142D26-3A5A-40BE-9C07-7DB42A6D2E57}" name="IDPracownika" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3ED4D220-4569-4CF3-9435-D44B5A18EAD1}" name="Tabela8" displayName="Tabela8" ref="A1:F4" totalsRowShown="0">
   <autoFilter ref="A1:F4" xr:uid="{3ED4D220-4569-4CF3-9435-D44B5A18EAD1}"/>
   <tableColumns count="6">
@@ -2902,32 +3018,32 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5AB7477A-79E8-4A27-8FDE-C372F008A7A4}" name="Tabela9" displayName="Tabela9" ref="B7:E13" totalsRowShown="0" headerRowDxfId="60" dataDxfId="61" headerRowBorderDxfId="67" tableBorderDxfId="68" totalsRowBorderDxfId="66">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5AB7477A-79E8-4A27-8FDE-C372F008A7A4}" name="Tabela9" displayName="Tabela9" ref="B7:E13" totalsRowShown="0" headerRowDxfId="52" dataDxfId="50" headerRowBorderDxfId="51" tableBorderDxfId="49" totalsRowBorderDxfId="48">
   <autoFilter ref="B7:E13" xr:uid="{5AB7477A-79E8-4A27-8FDE-C372F008A7A4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{486B588F-6D25-442F-A174-97FB819FC1B7}" name="NazwaProduktu" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{B7AD22D3-4F41-485E-B3EA-73887E0C7862}" name="Dostawca" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{F2B31614-24AD-4F88-A542-681FF67A65B1}" name="AdresDostawcy" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{68649E6E-D3A0-48FA-8EE3-578853A352A5}" name="Cena" dataDxfId="62"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B8A2B417-84E7-498E-A8DA-926448941D41}" name="Tabela16" displayName="Tabela16" ref="A18:B21" totalsRowShown="0" headerRowDxfId="27" dataDxfId="16" headerRowBorderDxfId="29" tableBorderDxfId="30" totalsRowBorderDxfId="28">
-  <autoFilter ref="A18:B21" xr:uid="{B8A2B417-84E7-498E-A8DA-926448941D41}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DE72A08A-5971-48C3-8E75-7B11CB92DDA7}" name="NazwaProduktu" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{9D7710E8-5B67-4170-99C7-461F78D2A8DA}" name="Cena" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{486B588F-6D25-442F-A174-97FB819FC1B7}" name="NazwaProduktu" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{B7AD22D3-4F41-485E-B3EA-73887E0C7862}" name="Dostawca" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{F2B31614-24AD-4F88-A542-681FF67A65B1}" name="AdresDostawcy" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{68649E6E-D3A0-48FA-8EE3-578853A352A5}" name="Cena" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{A5372FFD-BDD2-45D1-ACDF-C192A90CF8FD}" name="Tabela17" displayName="Tabela17" ref="D18:E23" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="25" tableBorderDxfId="26" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B8A2B417-84E7-498E-A8DA-926448941D41}" name="Tabela16" displayName="Tabela16" ref="A18:B21" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40" totalsRowBorderDxfId="39">
+  <autoFilter ref="A18:B21" xr:uid="{B8A2B417-84E7-498E-A8DA-926448941D41}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{DE72A08A-5971-48C3-8E75-7B11CB92DDA7}" name="NazwaProduktu" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{9D7710E8-5B67-4170-99C7-461F78D2A8DA}" name="Cena" dataDxfId="37"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{A5372FFD-BDD2-45D1-ACDF-C192A90CF8FD}" name="Tabela17" displayName="Tabela17" ref="D18:E23" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34" totalsRowBorderDxfId="33">
   <autoFilter ref="D18:E23" xr:uid="{A5372FFD-BDD2-45D1-ACDF-C192A90CF8FD}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E6DEAD04-5169-4831-8777-561EC05E3375}" name="Dostawca"/>
@@ -2937,8 +3053,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{B92F12A6-44C3-4E0F-A778-8A6498B94645}" name="Tabela18" displayName="Tabela18" ref="C26:D32" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="21" tableBorderDxfId="22" totalsRowBorderDxfId="20">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{B92F12A6-44C3-4E0F-A778-8A6498B94645}" name="Tabela18" displayName="Tabela18" ref="C26:D32" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
   <autoFilter ref="C26:D32" xr:uid="{B92F12A6-44C3-4E0F-A778-8A6498B94645}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{07BE580E-72AC-4EA2-B35E-E8F69F690A6D}" name="NazwaProduktu"/>
@@ -2948,8 +3064,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{1B7A7D87-B78C-4A4C-9E31-3B4EF7FBF11E}" name="Tabela19" displayName="Tabela19" ref="A37:C40" totalsRowShown="0" tableBorderDxfId="15">
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{1B7A7D87-B78C-4A4C-9E31-3B4EF7FBF11E}" name="Tabela19" displayName="Tabela19" ref="A37:C40" totalsRowShown="0" tableBorderDxfId="28">
   <autoFilter ref="A37:C40" xr:uid="{1B7A7D87-B78C-4A4C-9E31-3B4EF7FBF11E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BF56DDBC-2DC4-42A6-B00D-CA98E68CDE3A}" name="IDProduktu"/>
@@ -2960,19 +3076,19 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{75652B3C-E658-4D15-8FD2-E5F3038603E2}" name="Tabela20" displayName="Tabela20" ref="A43:C46" totalsRowShown="0">
   <autoFilter ref="A43:C46" xr:uid="{75652B3C-E658-4D15-8FD2-E5F3038603E2}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{3C8C5742-8929-4503-A6C5-1097E1F15A02}" name="IDCeny"/>
     <tableColumn id="2" xr3:uid="{A4549EE3-4DC3-41C0-962C-6E4307195173}" name="CenaNetto"/>
-    <tableColumn id="3" xr3:uid="{BCDE985C-BC0B-4662-9290-C86DBB67D29B}" name="CenaBrutto" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{BCDE985C-BC0B-4662-9290-C86DBB67D29B}" name="CenaBrutto" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{AD567940-EE05-4264-BB0A-2B70F8D11A16}" name="Tabela23" displayName="Tabela23" ref="E44:F49" totalsRowShown="0">
   <autoFilter ref="E44:F49" xr:uid="{AD567940-EE05-4264-BB0A-2B70F8D11A16}"/>
   <tableColumns count="2">
@@ -2983,119 +3099,116 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{256EF805-6F3F-4F9C-832E-912F0E3AED02}" name="Tabela24" displayName="Tabela24" ref="E37:H42" totalsRowShown="0" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{256EF805-6F3F-4F9C-832E-912F0E3AED02}" name="Tabela24" displayName="Tabela24" ref="E37:H42" totalsRowShown="0" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <autoFilter ref="E37:H42" xr:uid="{256EF805-6F3F-4F9C-832E-912F0E3AED02}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9FB3D08B-5FB8-469A-AC85-6C0A9D151068}" name="IDDostawcy" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{7E43D2DC-9B70-4EF1-ABD6-2245C7E08BB2}" name="Dostawca" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{59D242C7-315E-49F7-8925-54A3D7C8CA8C}" name="Ulica" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{AE5D4944-7F89-4E72-894D-90C9CE668609}" name="KodPocztowy" dataDxfId="7"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{46761647-6A92-4AE5-AE1D-C62412FC3478}" name="Tabela25" displayName="Tabela25" ref="B52:C58" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
-  <autoFilter ref="B52:C58" xr:uid="{46761647-6A92-4AE5-AE1D-C62412FC3478}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0BE0A9A0-88C5-495A-B48F-4D58E119ADB7}" name="IDProduktu" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{18F5AEF9-4ECA-44B8-BA82-E0E72A7F4D89}" name="IDDostawcy" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{9FB3D08B-5FB8-469A-AC85-6C0A9D151068}" name="IDDostawcy" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{7E43D2DC-9B70-4EF1-ABD6-2245C7E08BB2}" name="Dostawca" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{59D242C7-315E-49F7-8925-54A3D7C8CA8C}" name="Ulica" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{AE5D4944-7F89-4E72-894D-90C9CE668609}" name="KodPocztowy" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{796B1BA3-6DD4-4851-AE5F-B70814CEE417}" name="Tabela4" displayName="Tabela4" ref="A11:B18" totalsRowShown="0" headerRowDxfId="90" dataDxfId="91" headerRowBorderDxfId="95" tableBorderDxfId="96" totalsRowBorderDxfId="94">
-  <autoFilter ref="A11:B18" xr:uid="{796B1BA3-6DD4-4851-AE5F-B70814CEE417}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{796B1BA3-6DD4-4851-AE5F-B70814CEE417}" name="Tabela4" displayName="Tabela4" ref="A12:B19" totalsRowShown="0" headerRowDxfId="101" dataDxfId="99" headerRowBorderDxfId="100" tableBorderDxfId="98" totalsRowBorderDxfId="97">
+  <autoFilter ref="A12:B19" xr:uid="{796B1BA3-6DD4-4851-AE5F-B70814CEE417}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0BE50068-8560-4154-AA75-BDE9FBAC3FAD}" name="IDPracownika" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{FDFE38B5-2FDD-4619-A6E8-5507C1B01D81}" name="NazwaLekarza" dataDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{0BE50068-8560-4154-AA75-BDE9FBAC3FAD}" name="IDPracownika" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{FDFE38B5-2FDD-4619-A6E8-5507C1B01D81}" name="NazwaLekarza" dataDxfId="95"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{46761647-6A92-4AE5-AE1D-C62412FC3478}" name="Tabela25" displayName="Tabela25" ref="B52:C58" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="B52:C58" xr:uid="{46761647-6A92-4AE5-AE1D-C62412FC3478}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{0BE0A9A0-88C5-495A-B48F-4D58E119ADB7}" name="IDProduktu" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{18F5AEF9-4ECA-44B8-BA82-E0E72A7F4D89}" name="IDDostawcy" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6B3A88B3-BCDF-4115-B87E-ED43115D4E8F}" name="Tabela5" displayName="Tabela5" ref="D11:E18" totalsRowShown="0" headerRowDxfId="83" dataDxfId="84" headerRowBorderDxfId="88" tableBorderDxfId="89" totalsRowBorderDxfId="87">
-  <autoFilter ref="D11:E18" xr:uid="{6B3A88B3-BCDF-4115-B87E-ED43115D4E8F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6B3A88B3-BCDF-4115-B87E-ED43115D4E8F}" name="Tabela5" displayName="Tabela5" ref="D12:E19" totalsRowShown="0" headerRowDxfId="94" dataDxfId="92" headerRowBorderDxfId="93" tableBorderDxfId="91" totalsRowBorderDxfId="90">
+  <autoFilter ref="D12:E19" xr:uid="{6B3A88B3-BCDF-4115-B87E-ED43115D4E8F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6B3D57B5-D6C3-4A09-A1E2-F4A0675CCBE9}" name="IDPacjenta" dataDxfId="86"/>
-    <tableColumn id="2" xr3:uid="{66521706-57E4-43CC-A9A2-CEBFF86C1FD9}" name="NazwaPacjenta" dataDxfId="85"/>
+    <tableColumn id="1" xr3:uid="{6B3D57B5-D6C3-4A09-A1E2-F4A0675CCBE9}" name="IDPacjenta" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{66521706-57E4-43CC-A9A2-CEBFF86C1FD9}" name="NazwaPacjenta" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8B3478FB-C6F2-4B4B-8FED-9AE6CD936D0D}" name="Tabela6" displayName="Tabela6" ref="G11:H18" totalsRowShown="0" headerRowDxfId="76" dataDxfId="77" headerRowBorderDxfId="81" tableBorderDxfId="82" totalsRowBorderDxfId="80">
-  <autoFilter ref="G11:H18" xr:uid="{8B3478FB-C6F2-4B4B-8FED-9AE6CD936D0D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8B3478FB-C6F2-4B4B-8FED-9AE6CD936D0D}" name="Tabela6" displayName="Tabela6" ref="G12:H19" totalsRowShown="0" headerRowDxfId="87" dataDxfId="85" headerRowBorderDxfId="86" tableBorderDxfId="84" totalsRowBorderDxfId="83">
+  <autoFilter ref="G12:H19" xr:uid="{8B3478FB-C6F2-4B4B-8FED-9AE6CD936D0D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A6E1A1C1-E871-46E8-B5B8-C90E058B5E35}" name="IDZabiegu" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{838732E2-8EAB-473B-BE91-5F2A56389786}" name="NazwaZabiegu" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{A6E1A1C1-E871-46E8-B5B8-C90E058B5E35}" name="IDZabiegu" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{838732E2-8EAB-473B-BE91-5F2A56389786}" name="NazwaZabiegu" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{20618C7D-6EAD-400B-90FD-731FB5C734AB}" name="Tabela7" displayName="Tabela7" ref="D21:G28" totalsRowShown="0" headerRowBorderDxfId="74" tableBorderDxfId="75" totalsRowBorderDxfId="73">
-  <autoFilter ref="D21:G28" xr:uid="{20618C7D-6EAD-400B-90FD-731FB5C734AB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{20618C7D-6EAD-400B-90FD-731FB5C734AB}" name="Tabela7" displayName="Tabela7" ref="D22:G29" totalsRowShown="0" headerRowBorderDxfId="80" tableBorderDxfId="79" totalsRowBorderDxfId="78">
+  <autoFilter ref="D22:G29" xr:uid="{20618C7D-6EAD-400B-90FD-731FB5C734AB}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{906571B8-9C94-4027-8E7B-09C9CBB44ED8}" name="IDPracownika" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{E3414678-DB8A-4BD9-86F9-1BAA2F56FBD9}" name="IDPacjenta" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{C072A1FE-ADC1-4631-8176-1F165F7CBD0D}" name="IDZabiegu" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{E2EB7CBD-D89E-4CDF-8EA4-0C9A664B3389}" name="DataGodzinaWizyty" dataDxfId="69"/>
+    <tableColumn id="1" xr3:uid="{906571B8-9C94-4027-8E7B-09C9CBB44ED8}" name="IDPracownika" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{E3414678-DB8A-4BD9-86F9-1BAA2F56FBD9}" name="IDPacjenta" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{C072A1FE-ADC1-4631-8176-1F165F7CBD0D}" name="IDZabiegu" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{E2EB7CBD-D89E-4CDF-8EA4-0C9A664B3389}" name="DataGodzinaWizyty" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{AEF85D15-E394-4A67-B2D4-AA1399547E69}" name="Tabela411" displayName="Tabela411" ref="A32:B39" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" headerRowBorderDxfId="56" tableBorderDxfId="57" totalsRowBorderDxfId="55">
-  <autoFilter ref="A32:B39" xr:uid="{AEF85D15-E394-4A67-B2D4-AA1399547E69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{AEF85D15-E394-4A67-B2D4-AA1399547E69}" name="Tabela411" displayName="Tabela411" ref="A33:B40" totalsRowShown="0" headerRowDxfId="73" dataDxfId="71" headerRowBorderDxfId="72" tableBorderDxfId="70" totalsRowBorderDxfId="69">
+  <autoFilter ref="A33:B40" xr:uid="{AEF85D15-E394-4A67-B2D4-AA1399547E69}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EC5613B3-405F-4554-BB20-22C7BE60D5B2}" name="IDPracownika" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{4CF3038D-DB21-463A-9D36-B102E39F2C68}" name="NazwaLekarza" dataDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{EC5613B3-405F-4554-BB20-22C7BE60D5B2}" name="IDPracownika" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{4CF3038D-DB21-463A-9D36-B102E39F2C68}" name="NazwaLekarza" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5EF62037-ACDF-46E0-8774-36C3AFFB911D}" name="Tabela512" displayName="Tabela512" ref="D32:E39" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" headerRowBorderDxfId="49" tableBorderDxfId="50" totalsRowBorderDxfId="48">
-  <autoFilter ref="D32:E39" xr:uid="{5EF62037-ACDF-46E0-8774-36C3AFFB911D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5EF62037-ACDF-46E0-8774-36C3AFFB911D}" name="Tabela512" displayName="Tabela512" ref="D33:E40" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63" totalsRowBorderDxfId="62">
+  <autoFilter ref="D33:E40" xr:uid="{5EF62037-ACDF-46E0-8774-36C3AFFB911D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E5B05644-236B-43D3-85F4-CA8A5C78DC66}" name="IDPacjenta" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{34B3E893-80B5-44C1-81A4-B57F2C1D2096}" name="NazwaPacjenta" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{E5B05644-236B-43D3-85F4-CA8A5C78DC66}" name="IDPacjenta" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{34B3E893-80B5-44C1-81A4-B57F2C1D2096}" name="NazwaPacjenta" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{0F8C3A7A-ECB3-48F6-918B-DD08A3A15F12}" name="Tabela613" displayName="Tabela613" ref="G32:H39" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" headerRowBorderDxfId="42" tableBorderDxfId="43" totalsRowBorderDxfId="41">
-  <autoFilter ref="G32:H39" xr:uid="{0F8C3A7A-ECB3-48F6-918B-DD08A3A15F12}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{0F8C3A7A-ECB3-48F6-918B-DD08A3A15F12}" name="Tabela613" displayName="Tabela613" ref="G33:H40" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+  <autoFilter ref="G33:H40" xr:uid="{0F8C3A7A-ECB3-48F6-918B-DD08A3A15F12}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4E5BDE9B-E9D5-4242-8823-AE1CB278BC51}" name="IDZabiegu" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{6C081870-D0BB-4C51-873A-023C222AC5E3}" name="NazwaZabiegu" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{4E5BDE9B-E9D5-4242-8823-AE1CB278BC51}" name="IDZabiegu" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{6C081870-D0BB-4C51-873A-023C222AC5E3}" name="NazwaZabiegu" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{3BAF347E-A054-4CAD-A5D3-4366F4E6A462}" name="Tabela14" displayName="Tabela14" ref="A42:F49" totalsRowShown="0" headerRowDxfId="31" dataDxfId="32" tableBorderDxfId="38">
-  <autoFilter ref="A42:F49" xr:uid="{3BAF347E-A054-4CAD-A5D3-4366F4E6A462}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{896B19E8-5F73-43B6-A999-ED14522CDFF9}" name="IDWizyty"/>
-    <tableColumn id="2" xr3:uid="{52A15F75-98E8-4EEE-AABC-69B320120291}" name="IDPracownika" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{7973536F-4552-4537-B17F-5428E9BF5D86}" name="IDPacjenta" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{2FFD5FCF-E15F-4E60-90E9-2F5B7E96344E}" name="IDZabiegu" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{9ACF21B1-3F31-4B63-87FE-D5CE84D4E592}" name="DataWizyty" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{A217063F-31AB-4606-80E4-30633A0C3A0D}" name="GodzinaWizyty" dataDxfId="33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5114DC92-1287-4C3C-8B8B-889FDA7A32DF}" name="Tabela1" displayName="Tabela1" ref="A42:C49" totalsRowShown="0" tableBorderDxfId="12">
+  <autoFilter ref="A42:C49" xr:uid="{5114DC92-1287-4C3C-8B8B-889FDA7A32DF}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{7777AF74-5751-4715-BCE7-CE3DC8A3BD92}" name="IDWizyty" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{C86588DF-5B1C-4197-BB95-3262EAD0D559}" name="DataWizyty" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{7691626A-B64E-40AE-BD9D-8E9BEFDD0017}" name="GodzinaWizyty" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3420,8 +3533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F04177-105A-4499-8D47-FD2F7AC4B6F9}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3627,275 +3740,301 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="15" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E22" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F22" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G22" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="4" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D23" s="7" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="4" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="7" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="4" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="7" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D28" s="8" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E29" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G29" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3922,333 +4061,357 @@
         <v>68</v>
       </c>
       <c r="H31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="E42" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="45">
+        <v>43902</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="4" t="s">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="46">
+        <v>43902</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="45">
+        <v>43904</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="H45" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="7" t="s">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="46">
+        <v>43906</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" s="43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="45">
+        <v>43908</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="46">
+        <v>43910</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="7" t="s">
+      <c r="H48" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="47">
+        <v>43902</v>
+      </c>
+      <c r="C49" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="H49" s="49" t="s">
         <v>31</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="22">
-        <v>43902</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="23">
-        <v>43902</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="22">
-        <v>43904</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="23">
-        <v>43906</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="22">
-        <v>43908</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="23">
-        <v>43910</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="22">
-        <v>43902</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="9">
+  <tableParts count="10">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -4258,6 +4421,7 @@
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4266,8 +4430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBC1B2B-4FAF-4F07-AA08-37B82F0BCA57}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4476,22 +4640,22 @@
         <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
         <v>87</v>
       </c>
-      <c r="E16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" t="s">
-        <v>88</v>
-      </c>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4551,8 +4715,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
       <c r="D22" s="18" t="s">
         <v>54</v>
       </c>
@@ -4561,8 +4725,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="37"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="34"/>
       <c r="D23" s="8" t="s">
         <v>55</v>
       </c>
@@ -4571,8 +4735,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="36"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="33"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" s="15" t="s">
@@ -4635,284 +4799,284 @@
         <v>67</v>
       </c>
       <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" t="s">
-        <v>88</v>
-      </c>
-      <c r="G35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>95</v>
-      </c>
       <c r="E37" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>64</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="24" t="s">
         <v>49</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F39" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="28" t="s">
-        <v>112</v>
+      <c r="G39" s="25" t="s">
+        <v>110</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E41" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F41" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="28" t="s">
-        <v>114</v>
+      <c r="G41" s="25" t="s">
+        <v>112</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E42" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G42" s="41" t="s">
-        <v>115</v>
+      <c r="G42" s="38" t="s">
+        <v>113</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>96</v>
-      </c>
-      <c r="B44" s="38">
+        <v>94</v>
+      </c>
+      <c r="B44" s="35">
         <v>130</v>
       </c>
-      <c r="C44" s="39">
+      <c r="C44" s="36">
         <v>150</v>
       </c>
       <c r="E44" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" t="s">
         <v>108</v>
-      </c>
-      <c r="F44" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" s="40">
+        <v>95</v>
+      </c>
+      <c r="B45" s="37">
         <v>200</v>
       </c>
-      <c r="C45" s="39">
+      <c r="C45" s="36">
         <v>220</v>
       </c>
       <c r="E45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>98</v>
-      </c>
-      <c r="B46" s="38">
+        <v>96</v>
+      </c>
+      <c r="B46" s="35">
         <v>89</v>
       </c>
-      <c r="C46" s="39">
+      <c r="C46" s="36">
         <v>110</v>
       </c>
       <c r="E46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F47" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F49" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="43" t="s">
-        <v>91</v>
+      <c r="B52" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>103</v>
+        <v>97</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>106</v>
+        <v>98</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
